--- a/鱉蛋對照編號至9月5日.xlsx
+++ b/鱉蛋對照編號至9月5日.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Howard2017\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OH_Bro\Desktop\turtle\turtle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="208">
   <si>
     <t>B1中</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -831,6 +831,10 @@
   </si>
   <si>
     <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -964,11 +968,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1252,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="N142" sqref="N142"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1508,13 +1512,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -1522,11 +1526,11 @@
         <v>28</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -1534,11 +1538,11 @@
         <v>18</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -2370,7 +2374,7 @@
       <c r="B137" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C137" s="14">
+      <c r="C137" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2390,7 +2394,7 @@
       <c r="B140" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C140" s="14">
+      <c r="C140" s="13">
         <v>10</v>
       </c>
     </row>
@@ -2399,7 +2403,7 @@
       <c r="B141" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C141" s="14" t="s">
+      <c r="C141" s="13" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2457,7 +2461,7 @@
       <c r="B149" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C149" s="14">
+      <c r="C149" s="13">
         <v>37</v>
       </c>
     </row>
@@ -2466,7 +2470,7 @@
       <c r="B150" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C150" s="14">
+      <c r="C150" s="13">
         <v>101</v>
       </c>
     </row>
@@ -2504,7 +2508,7 @@
       <c r="B155" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C155" s="14">
+      <c r="C155" s="13">
         <v>25</v>
       </c>
     </row>
@@ -2549,7 +2553,7 @@
       <c r="B160" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C160" s="14">
+      <c r="C160" s="13">
         <v>49</v>
       </c>
     </row>
@@ -2627,7 +2631,7 @@
       <c r="B171" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C171" s="14">
+      <c r="C171" s="13">
         <v>18</v>
       </c>
     </row>
@@ -2636,7 +2640,7 @@
       <c r="B172" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C172" s="14">
+      <c r="C172" s="13">
         <v>36</v>
       </c>
     </row>
@@ -2645,7 +2649,7 @@
       <c r="B173" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C173" s="14">
+      <c r="C173" s="13">
         <v>85</v>
       </c>
     </row>
@@ -2654,7 +2658,7 @@
       <c r="B174" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C174" s="14">
+      <c r="C174" s="13">
         <v>52</v>
       </c>
     </row>
@@ -2663,7 +2667,7 @@
       <c r="B175" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C175" s="14">
+      <c r="C175" s="13">
         <v>25</v>
       </c>
     </row>
@@ -2672,7 +2676,7 @@
       <c r="B176" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C176" s="14">
+      <c r="C176" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2710,21 +2714,27 @@
       <c r="B181" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C181" s="12"/>
+      <c r="C181" s="12" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C182" s="12"/>
+      <c r="C182" s="12" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C183" s="12"/>
+      <c r="C183" s="12">
+        <v>86</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
@@ -2733,7 +2743,9 @@
       <c r="B185" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C185" s="12"/>
+      <c r="C185" s="12">
+        <v>40</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
@@ -2754,14 +2766,18 @@
       <c r="B188" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C188" s="12"/>
+      <c r="C188" s="12">
+        <v>33</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C189" s="12"/>
+      <c r="C189" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
@@ -2770,14 +2786,18 @@
       <c r="B191" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C191" s="12"/>
+      <c r="C191" s="12">
+        <v>35</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C192" s="12"/>
+      <c r="C192" s="12">
+        <v>19</v>
+      </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
@@ -2811,7 +2831,9 @@
       <c r="B197" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C197" s="12"/>
+      <c r="C197" s="12">
+        <v>13</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
